--- a/受控文档/会议/绩效评价/2018年12月1日会议绩效评价.xlsx
+++ b/受控文档/会议/绩效评价/2018年12月1日会议绩效评价.xlsx
@@ -390,7 +390,7 @@
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>89</v>
+        <v>89.4</v>
       </c>
       <c r="D3" s="1">
         <v>91</v>

--- a/受控文档/会议/绩效评价/2018年12月1日会议绩效评价.xlsx
+++ b/受控文档/会议/绩效评价/2018年12月1日会议绩效评价.xlsx
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>89.4</v>
+        <v>89.5</v>
       </c>
       <c r="D3" s="1">
         <v>91</v>
